--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Ccl21b-Ackr4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Ccl21b-Ackr4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -86,6 +86,9 @@
   </si>
   <si>
     <t>Ackr4</t>
+  </si>
+  <si>
+    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -443,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,7 +525,7 @@
         <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -540,37 +543,37 @@
         <v>0.7997108917301441</v>
       </c>
       <c r="J2">
-        <v>0.7997108917301441</v>
+        <v>0.7997108917301442</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>1.890486333333333</v>
+        <v>0.07058066666666667</v>
       </c>
       <c r="N2">
-        <v>5.671459</v>
+        <v>0.211742</v>
       </c>
       <c r="O2">
-        <v>0.9442400689667343</v>
+        <v>0.03405243646146196</v>
       </c>
       <c r="P2">
-        <v>0.9442400689667344</v>
+        <v>0.03405243646146196</v>
       </c>
       <c r="Q2">
-        <v>0.7192071682216667</v>
+        <v>0.02685135592333333</v>
       </c>
       <c r="R2">
-        <v>6.472864513995001</v>
+        <v>0.24166220331</v>
       </c>
       <c r="S2">
-        <v>0.7551190675607199</v>
+        <v>0.02723210432817981</v>
       </c>
       <c r="T2">
-        <v>0.7551190675607199</v>
+        <v>0.02723210432817982</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,7 +587,7 @@
         <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -602,42 +605,42 @@
         <v>0.7997108917301441</v>
       </c>
       <c r="J3">
-        <v>0.7997108917301441</v>
+        <v>0.7997108917301442</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.1116383333333333</v>
+        <v>1.890486333333333</v>
       </c>
       <c r="N3">
-        <v>0.334915</v>
+        <v>5.671459</v>
       </c>
       <c r="O3">
-        <v>0.05575993103326565</v>
+        <v>0.9120863940138783</v>
       </c>
       <c r="P3">
-        <v>0.05575993103326566</v>
+        <v>0.9120863940138783</v>
       </c>
       <c r="Q3">
-        <v>0.04247112934166667</v>
+        <v>0.7192071682216667</v>
       </c>
       <c r="R3">
-        <v>0.382240164075</v>
+        <v>6.472864513995001</v>
       </c>
       <c r="S3">
-        <v>0.04459182416942421</v>
+        <v>0.7294054234917702</v>
       </c>
       <c r="T3">
-        <v>0.04459182416942421</v>
+        <v>0.7294054234917703</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>22</v>
@@ -646,55 +649,55 @@
         <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>0.380435</v>
+      </c>
+      <c r="H4">
+        <v>1.141305</v>
+      </c>
+      <c r="I4">
+        <v>0.7997108917301441</v>
+      </c>
+      <c r="J4">
+        <v>0.7997108917301442</v>
+      </c>
+      <c r="K4">
         <v>2</v>
       </c>
-      <c r="F4">
+      <c r="L4">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G4">
-        <v>0.09528066666666668</v>
-      </c>
-      <c r="H4">
-        <v>0.285842</v>
-      </c>
-      <c r="I4">
-        <v>0.2002891082698559</v>
-      </c>
-      <c r="J4">
-        <v>0.2002891082698559</v>
-      </c>
-      <c r="K4">
-        <v>3</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
       <c r="M4">
-        <v>1.890486333333333</v>
+        <v>0.1116383333333333</v>
       </c>
       <c r="N4">
-        <v>5.671459</v>
+        <v>0.334915</v>
       </c>
       <c r="O4">
-        <v>0.9442400689667343</v>
+        <v>0.05386116952465989</v>
       </c>
       <c r="P4">
-        <v>0.9442400689667344</v>
+        <v>0.05386116952465989</v>
       </c>
       <c r="Q4">
-        <v>0.1801267981642223</v>
+        <v>0.04247112934166667</v>
       </c>
       <c r="R4">
-        <v>1.621141183478</v>
+        <v>0.382240164075</v>
       </c>
       <c r="S4">
-        <v>0.1891210014060144</v>
+        <v>0.04307336391019422</v>
       </c>
       <c r="T4">
-        <v>0.1891210014060145</v>
+        <v>0.04307336391019422</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,7 +711,7 @@
         <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -717,7 +720,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.09528066666666668</v>
+        <v>0.09528066666666667</v>
       </c>
       <c r="H5">
         <v>0.285842</v>
@@ -729,34 +732,158 @@
         <v>0.2002891082698559</v>
       </c>
       <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M5">
+        <v>0.07058066666666667</v>
+      </c>
+      <c r="N5">
+        <v>0.211742</v>
+      </c>
+      <c r="O5">
+        <v>0.03405243646146196</v>
+      </c>
+      <c r="P5">
+        <v>0.03405243646146196</v>
+      </c>
+      <c r="Q5">
+        <v>0.006724972973777778</v>
+      </c>
+      <c r="R5">
+        <v>0.060524756764</v>
+      </c>
+      <c r="S5">
+        <v>0.006820332133282142</v>
+      </c>
+      <c r="T5">
+        <v>0.006820332133282143</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
         <v>2</v>
       </c>
-      <c r="L5">
+      <c r="F6">
         <v>0.6666666666666666</v>
       </c>
-      <c r="M5">
+      <c r="G6">
+        <v>0.09528066666666667</v>
+      </c>
+      <c r="H6">
+        <v>0.285842</v>
+      </c>
+      <c r="I6">
+        <v>0.2002891082698559</v>
+      </c>
+      <c r="J6">
+        <v>0.2002891082698559</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>1.890486333333333</v>
+      </c>
+      <c r="N6">
+        <v>5.671459</v>
+      </c>
+      <c r="O6">
+        <v>0.9120863940138783</v>
+      </c>
+      <c r="P6">
+        <v>0.9120863940138783</v>
+      </c>
+      <c r="Q6">
+        <v>0.1801267981642222</v>
+      </c>
+      <c r="R6">
+        <v>1.621141183478</v>
+      </c>
+      <c r="S6">
+        <v>0.1826809705221081</v>
+      </c>
+      <c r="T6">
+        <v>0.1826809705221081</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G7">
+        <v>0.09528066666666667</v>
+      </c>
+      <c r="H7">
+        <v>0.285842</v>
+      </c>
+      <c r="I7">
+        <v>0.2002891082698559</v>
+      </c>
+      <c r="J7">
+        <v>0.2002891082698559</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M7">
         <v>0.1116383333333333</v>
       </c>
-      <c r="N5">
+      <c r="N7">
         <v>0.334915</v>
       </c>
-      <c r="O5">
-        <v>0.05575993103326565</v>
-      </c>
-      <c r="P5">
-        <v>0.05575993103326566</v>
-      </c>
-      <c r="Q5">
+      <c r="O7">
+        <v>0.05386116952465989</v>
+      </c>
+      <c r="P7">
+        <v>0.05386116952465989</v>
+      </c>
+      <c r="Q7">
         <v>0.01063697482555556</v>
       </c>
-      <c r="R5">
-        <v>0.09573277343000001</v>
-      </c>
-      <c r="S5">
-        <v>0.01116810686384144</v>
-      </c>
-      <c r="T5">
-        <v>0.01116810686384144</v>
+      <c r="R7">
+        <v>0.09573277343</v>
+      </c>
+      <c r="S7">
+        <v>0.01078780561446567</v>
+      </c>
+      <c r="T7">
+        <v>0.01078780561446567</v>
       </c>
     </row>
   </sheetData>
